--- a/docs/checklists/advanced_backtesting_checklist.xlsx
+++ b/docs/checklists/advanced_backtesting_checklist.xlsx
@@ -29,12 +29,42 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4C7E7"/>
+        <bgColor rgb="00B4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D08E"/>
+        <bgColor rgb="00A9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABF8F"/>
+        <bgColor rgb="00FABF8F"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +85,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,6 +467,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="41" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="3" max="3"/>
+    <col width="144" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -461,324 +503,324 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Event-Driven Architecture</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Event/1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Adopt Complex Event Processing (CEP)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Leverage CEP frameworks to handle tick-by-tick updates and complex multi-condition rules.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Event-Driven Architecture</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Event/2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Use Event-Driven Programming for Instantaneous Reaction</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Ensure the system reacts instantly to market events like new ticks or news updates, avoiding polling delays.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Event-Driven Architecture</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Event/3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Minimize Latency in Event-Triggered Processes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Optimize event processing pipelines to minimize latency and ensure timely responses for high-frequency strategies.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Data/1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Implement Efficient Storage for Level 2 Data</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Use columnar storage formats (e.g., Parquet, HDF5) or in-memory databases (e.g., Redis) for fast Level 2 data access.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Data/2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Ensure Real-Time Data Processing Capabilities</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Integrate tools for real-time data handling (e.g., Kafka, Flink) to process incoming streams efficiently.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Data/3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Preprocess Data to Remove Anomalies and Handle Gaps</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Clean data to address gaps, errors, and inconsistencies before backtesting or live trading.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Order Matching Engine</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Order/1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Develop a Market Microstructure Simulation</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Simulate market order books, replicating price-time priority and other matching rules to ensure accurate backtests.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Order Matching Engine</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Order/2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Incorporate Execution Dynamics (e.g., Slippage, Latency, Partial Fills)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Incorporate models for slippage, latency, and partial fills to mimic real-world execution dynamics.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Scalability</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Scale/1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Use Parallel or Distributed Computing Frameworks</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Leverage parallel computing libraries (e.g., Dask, Ray) or distributed frameworks (e.g., Spark) to handle computationally intensive workloads.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Scalability</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Scale/2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Optimize for Tick-Level Scalability and Large Datasets</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Design the system to scale efficiently for large datasets and tick-level granularity across multiple symbols.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Validation and Statistical Significance</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Validation/1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>Perform Monte Carlo Simulations to Test Strategy Robustness</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>Run Monte Carlo simulations to evaluate how strategies perform across thousands of hypothetical scenarios, ensuring robustness.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Validation and Statistical Significance</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Validation/2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>Apply Walk-Forward Testing and Cross-Validation</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>Use walk-forward testing and cross-validation to confirm the strategy generalizes to unseen data.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>⚠️ Pending</t>
         </is>
